--- a/inputs/sample_removal_specification.xlsx
+++ b/inputs/sample_removal_specification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine Local\Desktop\PhD 2024-2027\Cahier de laboratoire\others\projects\website_personal\website_personal\docs\posts\rshiny_app_zebrabox\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine Local\Desktop\PhD 2024-2027\Cahier de laboratoire\others\projects\Rshiny_app_zebrabox\Rshiny_app_zebrabox\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6A3DA4-F5C1-44E2-8223-05C304A650D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D31D73F-94CB-48F8-8E5A-D4D9DEE1CE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24BC4D01-94D0-4E16-901F-5F4F0C7915F5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{24BC4D01-94D0-4E16-901F-5F4F0C7915F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A740A26A-FCEE-46F3-94AA-1D6D8F9022AA}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
